--- a/src/database/data/StatementOfAccount.xlsx
+++ b/src/database/data/StatementOfAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\artisanscreative\kingsville\server\src\database\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\artisanscreative\kingsville-ui\src\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2892FA-5AFC-4ED3-A5D1-EF855C58A9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9F3209-109D-4000-9A85-74132221BE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{708AF4CA-856C-4FFD-A967-29A1B2ED5246}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{708AF4CA-856C-4FFD-A967-29A1B2ED5246}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement Of Account" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>STATEMENT OF ACCOUNT</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>A.R. /O.R.</t>
-  </si>
-  <si>
-    <t>P1, 000</t>
   </si>
   <si>
     <t>(PE Uniform, KV Shirt</t>
@@ -221,21 +218,6 @@
       </rPr>
       <t xml:space="preserve"> (Coat, Textile)</t>
     </r>
-  </si>
-  <si>
-    <t>P2,850</t>
-  </si>
-  <si>
-    <t>P1,375</t>
-  </si>
-  <si>
-    <t>P500</t>
-  </si>
-  <si>
-    <t>size-dependent</t>
-  </si>
-  <si>
-    <t>P 300</t>
   </si>
   <si>
     <r>
@@ -304,9 +286,6 @@
     <t>STUDENT'S COPY</t>
   </si>
   <si>
-    <t>MISCELLANEOUS FEE</t>
-  </si>
-  <si>
     <t>Serial No.:</t>
   </si>
   <si>
@@ -323,9 +302,6 @@
   </si>
   <si>
     <t>GRADUATING                                         (K2, G6, G12)                                Parangal Fee</t>
-  </si>
-  <si>
-    <t>P 750</t>
   </si>
   <si>
     <t>LEARNERS WITH DISTINCTION                                    (Non - Graduating)                                Parangal Fee</t>
@@ -357,9 +333,6 @@
     </r>
   </si>
   <si>
-    <t>P 2, 000</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">K2 and G6 </t>
     </r>
@@ -375,9 +348,6 @@
     </r>
   </si>
   <si>
-    <t>P 975</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">G12 </t>
     </r>
@@ -393,7 +363,13 @@
     </r>
   </si>
   <si>
-    <t>P 4, 325</t>
+    <t>New Student:</t>
+  </si>
+  <si>
+    <t>Old Student:</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
 </sst>
 </file>
@@ -573,22 +549,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF843634"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,14 +802,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,12 +814,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -870,18 +844,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -894,53 +856,125 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -949,71 +983,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,6 +992,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,50 +1010,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1399,893 +1374,822 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" customWidth="1"/>
-    <col min="15" max="16" width="5.88671875" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="6.21875" customWidth="1"/>
-    <col min="19" max="19" width="8.21875" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="15" width="5.85546875" customWidth="1"/>
+    <col min="16" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="42"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="52" t="s">
+    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="59" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="41"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="81"/>
+      <c r="O3" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="43"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="82"/>
+      <c r="O4" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="78"/>
+    </row>
+    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="38"/>
+    </row>
+    <row r="9" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="38"/>
+    </row>
+    <row r="13" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="38"/>
+    </row>
+    <row r="15" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="38"/>
+    </row>
+    <row r="19" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="38"/>
+    </row>
+    <row r="20" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="38"/>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="38"/>
+    </row>
+    <row r="22" spans="1:20" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="38"/>
+    </row>
+    <row r="23" spans="1:20" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="38"/>
+    </row>
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="38"/>
+    </row>
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="54"/>
-    </row>
-    <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="30" t="s">
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="38"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="56"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="15" t="s">
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="38"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="56"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58"/>
-    </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="51"/>
-    </row>
-    <row r="8" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="51"/>
-    </row>
-    <row r="9" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="51"/>
-    </row>
-    <row r="10" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="51"/>
-    </row>
-    <row r="11" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="51"/>
-    </row>
-    <row r="12" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="51"/>
-    </row>
-    <row r="13" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="51"/>
-    </row>
-    <row r="14" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="51"/>
-    </row>
-    <row r="15" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="51"/>
-    </row>
-    <row r="16" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="51"/>
-    </row>
-    <row r="17" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="51"/>
-    </row>
-    <row r="18" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="51"/>
-    </row>
-    <row r="19" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="51"/>
-    </row>
-    <row r="20" spans="1:21" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="51"/>
-    </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="51"/>
-    </row>
-    <row r="22" spans="1:21" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="51"/>
-    </row>
-    <row r="23" spans="1:21" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="62" t="s">
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="38"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="38"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="51"/>
-    </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="T24" s="20"/>
-      <c r="U24" s="51"/>
-    </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="20"/>
-      <c r="U25" s="51"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="T26" s="19"/>
-      <c r="U26" s="51"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="T27" s="81"/>
-      <c r="U27" s="51"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="71"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="51"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="73"/>
       <c r="N29" s="74"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
       <c r="Q29" s="75"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="51"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="51"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M1:R2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="A21:S21"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="M27:Q29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="K27:K29"/>
     <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="U6:U30"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="T1:U4"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="A21:T21"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="N27:R29"/>
     <mergeCell ref="S27:S29"/>
-    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="T6:T29"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="S1:T4"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>